--- a/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
@@ -127,16 +127,16 @@
     <t>ensure</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1489,25 +1489,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6609442060085837</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L25">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1515,25 +1515,25 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6595744680851063</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1541,25 +1541,25 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6534653465346535</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="M27">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1567,13 +1567,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.647887323943662</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L28">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="M28">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1671,25 +1671,25 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5487804878048781</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L32">
         <v>180</v>
       </c>
       <c r="M32">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="10:17">
